--- a/team_specific_matrix/Virginia-Lynchburg_B.xlsx
+++ b/team_specific_matrix/Virginia-Lynchburg_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2325581395348837</v>
+        <v>0.2531645569620253</v>
       </c>
       <c r="C2">
-        <v>0.4883720930232558</v>
+        <v>0.4556962025316456</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02325581395348837</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.186046511627907</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06976744186046512</v>
+        <v>0.0759493670886076</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07692307692307693</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8461538461538461</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.07692307692307693</v>
+        <v>0.08108108108108109</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.75</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.125</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1428571428571428</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.4285714285714285</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="R6">
-        <v>0.1428571428571428</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="S6">
-        <v>0.2857142857142857</v>
+        <v>0.3170731707317073</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0625</v>
+        <v>0.03125</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0625</v>
+        <v>0.03125</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.03125</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0625</v>
+        <v>0.09375</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1875</v>
+        <v>0.15625</v>
       </c>
       <c r="R7">
-        <v>0.1875</v>
+        <v>0.15625</v>
       </c>
       <c r="S7">
-        <v>0.4375</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0625</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03125</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0625</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.234375</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03125</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.25</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="R8">
-        <v>0.09375</v>
+        <v>0.1122448979591837</v>
       </c>
       <c r="S8">
-        <v>0.234375</v>
+        <v>0.2244897959183673</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08333333333333333</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02777777777777778</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.02777777777777778</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1944444444444444</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.3055555555555556</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="R9">
-        <v>0.1111111111111111</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="S9">
-        <v>0.25</v>
+        <v>0.2391304347826087</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.06906906906906907</v>
+        <v>0.09533898305084745</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.009009009009009009</v>
+        <v>0.01059322033898305</v>
       </c>
       <c r="E10">
-        <v>0.003003003003003003</v>
+        <v>0.00211864406779661</v>
       </c>
       <c r="F10">
-        <v>0.04204204204204205</v>
+        <v>0.0423728813559322</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1441441441441441</v>
+        <v>0.1334745762711864</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01201201201201201</v>
+        <v>0.00423728813559322</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.3783783783783784</v>
+        <v>0.3453389830508475</v>
       </c>
       <c r="R10">
-        <v>0.1021021021021021</v>
+        <v>0.1101694915254237</v>
       </c>
       <c r="S10">
-        <v>0.2402402402402402</v>
+        <v>0.2563559322033898</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1290322580645161</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09677419354838709</v>
+        <v>0.1</v>
       </c>
       <c r="K11">
-        <v>0.2580645161290323</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="L11">
-        <v>0.4838709677419355</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03225806451612903</v>
+        <v>0.01666666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5882352941176471</v>
+        <v>0.625</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3529411764705883</v>
+        <v>0.3125</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.05882352941176471</v>
+        <v>0.03125</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1283,28 +1283,28 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="J15">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K15">
-        <v>0.06666666666666667</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06666666666666667</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1666666666666667</v>
+        <v>0.1923076923076923</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.08823529411764706</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="I16">
-        <v>0.08823529411764706</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="J16">
-        <v>0.5</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="K16">
-        <v>0.05882352941176471</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.2647058823529412</v>
+        <v>0.2115384615384615</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,22 +1395,22 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0119047619047619</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1547619047619048</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="I17">
-        <v>0.1011904761904762</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="J17">
-        <v>0.5892857142857143</v>
+        <v>0.5446009389671361</v>
       </c>
       <c r="K17">
-        <v>0.04761904761904762</v>
+        <v>0.06572769953051644</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1419,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.005952380952380952</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="O17">
-        <v>0.03571428571428571</v>
+        <v>0.03286384976525822</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.05357142857142857</v>
+        <v>0.0892018779342723</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02040816326530612</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.08163265306122448</v>
+        <v>0.1012658227848101</v>
       </c>
       <c r="I18">
-        <v>0.06122448979591837</v>
+        <v>0.0759493670886076</v>
       </c>
       <c r="J18">
-        <v>0.6122448979591837</v>
+        <v>0.5443037974683544</v>
       </c>
       <c r="K18">
-        <v>0.08163265306122448</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04081632653061224</v>
+        <v>0.0759493670886076</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1020408163265306</v>
+        <v>0.1265822784810127</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.005988023952095809</v>
+        <v>0.007380073800738007</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1616766467065868</v>
+        <v>0.1660516605166052</v>
       </c>
       <c r="I19">
-        <v>0.0718562874251497</v>
+        <v>0.05535055350553506</v>
       </c>
       <c r="J19">
-        <v>0.5329341317365269</v>
+        <v>0.5092250922509225</v>
       </c>
       <c r="K19">
-        <v>0.0658682634730539</v>
+        <v>0.08856088560885608</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.005988023952095809</v>
+        <v>0.003690036900369004</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.0658682634730539</v>
+        <v>0.07749077490774908</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.08982035928143713</v>
+        <v>0.09225092250922509</v>
       </c>
     </row>
   </sheetData>
